--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1118035.898219297</v>
+        <v>-1120895.730454566</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>152.0747039460364</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>103.7427589056399</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>33.83508264353993</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>78.83206550361589</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.6612299361393</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>43.35650315440898</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>382.6612299361393</v>
@@ -911,7 +911,7 @@
         <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.5344394988564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075472</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.4646512129552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238352</v>
+        <v>49.99985954238353</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>83.95168445797074</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>130.5933302796663</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>89.28327366123375</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>122.6812911966021</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>315.1144708444588</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>262.8669074796338</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.6232958086567</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>87.2077729010078</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>18.38112956226367</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174141</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>107.317805417867</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695643</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428077</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>81.11398998229679</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892503</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.7907648167861</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>28.87857325623944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.77623638693879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>106.3612762946744</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541853</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541845</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487949</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487949</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487949</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="E2" t="n">
-        <v>407.0717515820915</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656066</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>322.4426321268593</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>133.0228471103743</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>133.0228471103743</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>291.6344296387591</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>291.6344296387591</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>291.6344296387591</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>132.3969746333036</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296051</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>642.7609564713373</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>453.3411714548525</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>453.3411714548525</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W3" t="n">
-        <v>263.9213864383677</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="X3" t="n">
-        <v>263.9213864383677</v>
+        <v>481.0542146552441</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.50160142188287</v>
+        <v>291.6344296387591</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>429.6874168100816</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="C5" t="n">
-        <v>429.6874168100816</v>
+        <v>1486.850472113841</v>
       </c>
       <c r="D5" t="n">
-        <v>429.6874168100816</v>
+        <v>1128.584773507091</v>
       </c>
       <c r="E5" t="n">
-        <v>429.6874168100816</v>
+        <v>742.7965209088463</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509238</v>
+        <v>356.270026023857</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489115</v>
+        <v>343.7220024936558</v>
       </c>
       <c r="H5" t="n">
         <v>30.61289839489115</v>
@@ -4568,13 +4568,13 @@
         <v>93.38580827121496</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235842</v>
+        <v>238.2046462235849</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190637</v>
+        <v>454.7669823190645</v>
       </c>
       <c r="M5" t="n">
-        <v>727.403745764308</v>
+        <v>727.4037457643085</v>
       </c>
       <c r="N5" t="n">
         <v>1009.06586545389</v>
@@ -4601,16 +4601,16 @@
         <v>1530.644919744557</v>
       </c>
       <c r="V5" t="n">
-        <v>1199.582032400986</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="W5" t="n">
-        <v>1199.582032400986</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="X5" t="n">
-        <v>1199.582032400986</v>
+        <v>1530.644919744557</v>
       </c>
       <c r="Y5" t="n">
-        <v>816.2139116950709</v>
+        <v>1530.644919744557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.3033826814736</v>
+        <v>658.5073838616238</v>
       </c>
       <c r="C6" t="n">
-        <v>189.8503534003466</v>
+        <v>484.0543545804968</v>
       </c>
       <c r="D6" t="n">
-        <v>189.8503534003466</v>
+        <v>335.1199449192455</v>
       </c>
       <c r="E6" t="n">
-        <v>30.61289839489115</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="F6" t="n">
-        <v>30.61289839489115</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61289839489115</v>
+        <v>175.8824899137901</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489115</v>
+        <v>77.54688951908832</v>
       </c>
       <c r="I6" t="n">
         <v>30.61289839489115</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275288</v>
+        <v>49.18216652275285</v>
       </c>
       <c r="K6" t="n">
         <v>159.0748281477046</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543714</v>
+        <v>353.1616144543713</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642231</v>
+        <v>599.0086077642229</v>
       </c>
       <c r="N6" t="n">
-        <v>865.7710843621741</v>
+        <v>865.7710843621738</v>
       </c>
       <c r="O6" t="n">
         <v>1087.586838970545</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422849</v>
+        <v>1246.280471422848</v>
       </c>
       <c r="Q6" t="n">
         <v>1302.443765680486</v>
@@ -4671,25 +4671,25 @@
         <v>1251.938857051816</v>
       </c>
       <c r="S6" t="n">
-        <v>1107.434782966763</v>
+        <v>1107.434782966762</v>
       </c>
       <c r="T6" t="n">
-        <v>1107.434782966763</v>
+        <v>911.5224021523694</v>
       </c>
       <c r="U6" t="n">
-        <v>1107.434782966763</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="V6" t="n">
-        <v>872.2826747350202</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="W6" t="n">
-        <v>740.3702199070744</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="X6" t="n">
-        <v>532.5187197015416</v>
+        <v>826.7227208816919</v>
       </c>
       <c r="Y6" t="n">
-        <v>532.5187197015416</v>
+        <v>826.7227208816919</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.5259919772843</v>
+        <v>120.7980233052283</v>
       </c>
       <c r="C7" t="n">
-        <v>178.5259919772843</v>
+        <v>120.7980233052283</v>
       </c>
       <c r="D7" t="n">
-        <v>178.5259919772843</v>
+        <v>120.7980233052283</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489115</v>
+        <v>120.7980233052283</v>
       </c>
       <c r="F7" t="n">
         <v>30.61289839489115</v>
@@ -4726,49 +4726,49 @@
         <v>30.61289839489115</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713239</v>
+        <v>51.49054881713236</v>
       </c>
       <c r="L7" t="n">
-        <v>108.1125511363482</v>
+        <v>108.1125511363481</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055981</v>
+        <v>171.070796605598</v>
       </c>
       <c r="N7" t="n">
-        <v>240.389561622135</v>
+        <v>240.3895616221348</v>
       </c>
       <c r="O7" t="n">
-        <v>284.103571764524</v>
+        <v>284.1035717645238</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.446488135468</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.446488135468</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.446488135468</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354682</v>
+        <v>302.446488135468</v>
       </c>
       <c r="T7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
       <c r="U7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
       <c r="V7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
       <c r="W7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
       <c r="X7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.5259919772843</v>
+        <v>302.446488135468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1073.791849324196</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="C8" t="n">
-        <v>755.4944040267628</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="D8" t="n">
-        <v>755.4944040267628</v>
+        <v>1105.665482693252</v>
       </c>
       <c r="E8" t="n">
-        <v>369.7061514285186</v>
+        <v>719.8772300950075</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7606506793152</v>
+        <v>308.8913253053999</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561087</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300008</v>
+        <v>1463.931181300002</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.791849324196</v>
+        <v>1463.931181300002</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>634.9516129627991</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>634.9516129627991</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>486.0172033015478</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>326.7797482960923</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809316</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562348</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104406</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835208</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309184</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1432.552065309184</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1432.552065309184</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1178.314708580983</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>970.4632083754498</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>803.1669499828672</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.3053794660001</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809316</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809316</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809316</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809316</v>
+        <v>149.7955422353123</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809316</v>
+        <v>149.7955422353123</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809316</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981553</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927341</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377472</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033673</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406008</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U10" t="n">
-        <v>501.7225495029607</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V10" t="n">
-        <v>501.7225495029607</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="W10" t="n">
-        <v>212.3053794660001</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="X10" t="n">
-        <v>212.3053794660001</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.3053794660001</v>
+        <v>296.6854897332227</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4413279836774</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>464.5051450557705</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.882371957447</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.0897928139171</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.9553291057244</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>342.9460855475331</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.7499862624131</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579356</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373469</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336509</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,58 +5738,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>120.6800663848338</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560544</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>637.9025067654818</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>819.5509715957215</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6467,31 +6467,31 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>748.5648313007904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>598.4481918884546</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>450.5350983060615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6692,40 +6692,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2598873597751</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.07903472198</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2253.988764961267</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,7 +7585,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,13 +7640,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7658,22 +7658,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380732</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>229.8556661262253</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>177.392717679501</v>
+        <v>303.1332868360715</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121489</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>98.04253847776086</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194312</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>59.1807228639271</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9188905722511</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>257.6444250803515</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>39.05977172825688</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-2.360038218565607e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1015512.845365932</v>
+        <v>1015512.845365931</v>
       </c>
     </row>
     <row r="3">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1225968.498660318</v>
+        <v>1225968.498660317</v>
       </c>
     </row>
     <row r="10">
@@ -26323,34 +26323,34 @@
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="K2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660713</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="P2" t="n">
         <v>205260.442466071</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.046899651</v>
+        <v>216004.0468996507</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960624</v>
+        <v>167084.5112960612</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854467</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.6701083829</v>
+        <v>50221.67010838283</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064607</v>
+        <v>59784.02116064573</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969924</v>
+        <v>196327.1528969923</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468115</v>
+        <v>221112.0537468116</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,22 +26442,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498539</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498551</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498546</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498542</v>
+        <v>24037.44323498548</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498537</v>
+        <v>24037.44323498547</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790111</v>
+        <v>72511.9759879011</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675417.7149351295</v>
+        <v>-675777.7979508472</v>
       </c>
       <c r="C6" t="n">
-        <v>-304367.6341682928</v>
+        <v>-304367.6341682925</v>
       </c>
       <c r="D6" t="n">
-        <v>-221226.1407747612</v>
+        <v>-221226.1407747603</v>
       </c>
       <c r="E6" t="n">
-        <v>-516825.6714475614</v>
+        <v>-516860.4093729985</v>
       </c>
       <c r="F6" t="n">
-        <v>84617.53612670257</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="G6" t="n">
-        <v>84617.53612670249</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="H6" t="n">
-        <v>84617.53612670247</v>
+        <v>84582.79820126673</v>
       </c>
       <c r="I6" t="n">
-        <v>84617.53612670251</v>
+        <v>84582.79820126676</v>
       </c>
       <c r="J6" t="n">
-        <v>35552.59139815778</v>
+        <v>35517.85347272214</v>
       </c>
       <c r="K6" t="n">
-        <v>34395.86601831962</v>
+        <v>34361.12809288394</v>
       </c>
       <c r="L6" t="n">
-        <v>18274.86221652424</v>
+        <v>18274.86221652458</v>
       </c>
       <c r="M6" t="n">
-        <v>-79087.49717442764</v>
+        <v>-79087.49717442758</v>
       </c>
       <c r="N6" t="n">
-        <v>78058.88337717028</v>
+        <v>78058.8833771701</v>
       </c>
       <c r="O6" t="n">
-        <v>78058.88337717018</v>
+        <v>78058.88337717031</v>
       </c>
       <c r="P6" t="n">
-        <v>78058.88337717023</v>
+        <v>78058.8833771701</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836622</v>
+        <v>716.4483122836621</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>382.6612299361393</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26805,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707575</v>
+        <v>167.9783713707573</v>
       </c>
       <c r="D3" t="n">
-        <v>137.262352254023</v>
+        <v>137.2623522540221</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698192</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900252</v>
+        <v>159.4537267900239</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698196</v>
+        <v>195.1356427698192</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900252</v>
+        <v>159.4537267900239</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698194</v>
+        <v>195.1356427698192</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900252</v>
+        <v>159.4537267900239</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>41.95774089589051</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27436,16 +27436,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>288.1954001782927</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>161.5745151484613</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377097</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>126.9409196998616</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213453</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.4700942971627</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,16 +27594,16 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07261172734126831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.9163886165986</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>24.21481580557213</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476413</v>
+        <v>99.43720189476416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724327</v>
+        <v>34.6625376272433</v>
       </c>
       <c r="S5" t="n">
         <v>143.3876437926214</v>
@@ -27673,7 +27673,7 @@
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.7034991571972</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075472</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.4646512129552</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,19 +27746,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>141.8883134278696</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>121.1016528812533</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>56.1377743616975</v>
       </c>
       <c r="G7" t="n">
         <v>166.6990233854882</v>
@@ -27795,7 +27795,7 @@
         <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037906</v>
+        <v>35.65413415037908</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461285</v>
+        <v>43.32130647461287</v>
       </c>
       <c r="R7" t="n">
         <v>119.2023528106942</v>
@@ -27825,7 +27825,7 @@
         <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
-        <v>99.74412271080529</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485590306925</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>50.15842092654879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.003827363993</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>74.2238333171489</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.05939996864763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>61.33203846023743</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>267.853928253453</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-2.271255084128753e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>2.880194220235825</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799016</v>
+        <v>29.49678905799015</v>
       </c>
       <c r="I5" t="n">
         <v>111.0386876756418</v>
@@ -31288,13 +31288,13 @@
         <v>244.4528841997406</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423232</v>
+        <v>366.3715055423231</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098655</v>
+        <v>454.5162494098654</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739843</v>
+        <v>505.7369033739842</v>
       </c>
       <c r="N5" t="n">
         <v>513.9202552022293</v>
@@ -31309,7 +31309,7 @@
         <v>311.0285736004917</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868889</v>
+        <v>180.9230001868888</v>
       </c>
       <c r="S5" t="n">
         <v>65.63242579362394</v>
@@ -31355,13 +31355,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044104</v>
+        <v>1.541039766044103</v>
       </c>
       <c r="H6" t="n">
         <v>14.88319984574174</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870448</v>
+        <v>53.05772878704479</v>
       </c>
       <c r="J6" t="n">
         <v>145.5944631594563</v>
@@ -31370,7 +31370,7 @@
         <v>248.8441274844112</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754972</v>
+        <v>334.6016386754971</v>
       </c>
       <c r="M6" t="n">
         <v>390.4643301945958</v>
@@ -31379,7 +31379,7 @@
         <v>400.7987591519706</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306776</v>
+        <v>366.6525622306775</v>
       </c>
       <c r="P6" t="n">
         <v>294.2710058510008</v>
@@ -31388,13 +31388,13 @@
         <v>196.7123743462614</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158043</v>
+        <v>95.67964442158042</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963498</v>
+        <v>28.62413775963497</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572503</v>
+        <v>6.211471688572502</v>
       </c>
       <c r="U6" t="n">
         <v>0.1013841951344805</v>
@@ -31437,46 +31437,46 @@
         <v>1.291955972970538</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513807</v>
+        <v>11.48666310513806</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351402</v>
+        <v>38.85263962351401</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901705</v>
+        <v>91.34128728901703</v>
       </c>
       <c r="K7" t="n">
         <v>150.101793950577</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178199</v>
+        <v>192.0786180178198</v>
       </c>
       <c r="M7" t="n">
         <v>202.5199712902817</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273917</v>
+        <v>197.7044990273916</v>
       </c>
       <c r="O7" t="n">
         <v>182.6121042522358</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036367</v>
+        <v>156.2562024036366</v>
       </c>
       <c r="Q7" t="n">
         <v>108.183695154833</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647528</v>
+        <v>58.09103856647527</v>
       </c>
       <c r="S7" t="n">
         <v>22.51526909258655</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874116</v>
+        <v>5.520175520874115</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839307</v>
+        <v>0.07047032579839306</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>272.9327299394441</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>223.6976288294628</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>152.1871379112069</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127089</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>145.7021085929657</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>459.139670588991</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305434</v>
+        <v>63.40697967305431</v>
       </c>
       <c r="K5" t="n">
         <v>146.2816544973426</v>
@@ -34948,10 +34948,10 @@
         <v>284.5071916056384</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030726</v>
+        <v>255.1821125030725</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574178</v>
+        <v>182.9425333574177</v>
       </c>
       <c r="Q5" t="n">
         <v>88.72288372604223</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278963</v>
+        <v>18.7568364927896</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100523</v>
+        <v>111.0026885100522</v>
       </c>
       <c r="L6" t="n">
-        <v>196.047258895623</v>
+        <v>196.0472588956229</v>
       </c>
       <c r="M6" t="n">
         <v>248.3302962725775</v>
@@ -35030,10 +35030,10 @@
         <v>224.0563177862331</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366706</v>
+        <v>160.2965984366705</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023987</v>
+        <v>56.73060026023984</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004167</v>
+        <v>21.08853578004164</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658159</v>
+        <v>57.19394173658156</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267666</v>
+        <v>63.59418734267661</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215848</v>
+        <v>70.01895456215846</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039299</v>
+        <v>44.15556580039296</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448906</v>
+        <v>18.52819835448904</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>130.3364854949997</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>81.10138438501835</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>25.34951124454018</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983787</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.86448192629905</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>320.5852908091168</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
